--- a/Data/IBACH/MAY25/aux_files/formulas/ratios_formulas.xlsx
+++ b/Data/IBACH/MAY25/aux_files/formulas/ratios_formulas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bpu058351\Documents\GitHub\Manuals\Data\IBACH\MAY25\aux_files\formulas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\DEE-BPLIM\data\products\iBACH\2025_05\docs\manual\BPLIM\aux_files\formulas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C67816-7D67-48E4-9EE2-84E175B3CDA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1BD5C92-6954-4DAC-A9C8-3770FA2A70E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CONTENTS" sheetId="30" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="443">
   <si>
     <t>A</t>
   </si>
@@ -1271,9 +1271,6 @@
     <t>(A6000+A7000)</t>
   </si>
   <si>
-    <t>(I4200-I0830)</t>
-  </si>
-  <si>
     <t>(I0100+I0200+I0300+I0410+I0420-I0500-I0600-I0700-I0810-I0830)</t>
   </si>
   <si>
@@ -1310,9 +1307,6 @@
     <t>(I0100+I0200+I0300+I0410-I0500-I0600-I0700-I0810-I0820-I0850-I0900)</t>
   </si>
   <si>
-    <t>(I0100+I0200+I0300+I0410-I050-I0600-I0700-I0810-I0820-I0850-I0900)</t>
-  </si>
-  <si>
     <t>IT300+I1100</t>
   </si>
   <si>
@@ -1524,9 +1518,6 @@
   </si>
   <si>
     <t>(3)  L61 and L62 are used from 2000 to 2015; from 2016 onwards, L6 is used instead of L61</t>
-  </si>
-  <si>
-    <t>Credit institutions net indebtness ratio</t>
   </si>
   <si>
     <r>
@@ -1605,6 +1596,12 @@
       </rPr>
       <t xml:space="preserve"> Ratios and Derived variables</t>
     </r>
+  </si>
+  <si>
+    <t>Credit institutions net indebtedness ratio</t>
+  </si>
+  <si>
+    <t>(I0420-I0830)</t>
   </si>
   <si>
     <t xml:space="preserve">(I0100+I0200+I0300+I0410+I0420-I0500-I0600-I0700-I0810-I0830) </t>
@@ -2098,10 +2095,13 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2111,9 +2111,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -2484,41 +2481,41 @@
   <dimension ref="B2:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.453125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="80.7265625" style="10" customWidth="1"/>
-    <col min="3" max="16384" width="8.7265625" style="10"/>
+    <col min="1" max="1" width="2.42578125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="80.7109375" style="10" customWidth="1"/>
+    <col min="3" max="16384" width="8.7109375" style="10"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="45" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="45"/>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="5" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="6" spans="2:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="12" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="7" spans="2:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="12" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="8" spans="2:2" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="2:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:B3"/>
@@ -2540,63 +2537,63 @@
   <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62:E63"/>
+      <selection activeCell="C2" sqref="C2:G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.453125" style="13" customWidth="1"/>
-    <col min="2" max="2" width="0.7265625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="12.26953125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="47.54296875" style="13" customWidth="1"/>
+    <col min="1" max="1" width="2.42578125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="0.7109375" style="13" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="47.5703125" style="13" customWidth="1"/>
     <col min="5" max="5" width="47" style="15" customWidth="1"/>
-    <col min="6" max="6" width="15.26953125" style="16" customWidth="1"/>
-    <col min="7" max="7" width="58.26953125" style="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.26953125" style="13"/>
+    <col min="6" max="6" width="15.28515625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="58.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.28515625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="21" t="s">
         <v>305</v>
       </c>
-      <c r="C2" s="50" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-    </row>
-    <row r="3" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="51" t="s">
+        <v>438</v>
+      </c>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+    </row>
+    <row r="3" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="21"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-    </row>
-    <row r="4" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+    </row>
+    <row r="4" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="21"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="G5" s="14" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="17.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:7" ht="17.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C6" s="52"/>
       <c r="D6" s="52"/>
       <c r="E6" s="52"/>
       <c r="F6" s="52"/>
       <c r="G6" s="52"/>
     </row>
-    <row r="7" spans="2:7" ht="15.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:7" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C7" s="18"/>
       <c r="D7" s="18" t="s">
         <v>294</v>
@@ -2609,14 +2606,14 @@
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="47" t="s">
-        <v>386</v>
-      </c>
-      <c r="D8" s="46" t="s">
+    <row r="8" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="46" t="s">
+        <v>384</v>
+      </c>
+      <c r="D8" s="47" t="s">
         <v>256</v>
       </c>
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="46" t="s">
         <v>257</v>
       </c>
       <c r="F8" s="27" t="s">
@@ -2626,10 +2623,10 @@
         <v>340</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="47"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="47"/>
+    <row r="9" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="46"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="46"/>
       <c r="F9" s="27" t="s">
         <v>259</v>
       </c>
@@ -2637,14 +2634,14 @@
         <v>341</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="47" t="s">
-        <v>387</v>
-      </c>
-      <c r="D10" s="46" t="s">
+    <row r="10" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="46" t="s">
+        <v>385</v>
+      </c>
+      <c r="D10" s="47" t="s">
         <v>260</v>
       </c>
-      <c r="E10" s="47" t="s">
+      <c r="E10" s="46" t="s">
         <v>261</v>
       </c>
       <c r="F10" s="27" t="s">
@@ -2654,10 +2651,10 @@
         <v>343</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="47"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="47"/>
+    <row r="11" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="46"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="46"/>
       <c r="F11" s="27" t="s">
         <v>259</v>
       </c>
@@ -2665,14 +2662,14 @@
         <v>341</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C12" s="47" t="s">
-        <v>388</v>
-      </c>
-      <c r="D12" s="46" t="s">
+    <row r="12" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="46" t="s">
+        <v>386</v>
+      </c>
+      <c r="D12" s="47" t="s">
         <v>262</v>
       </c>
-      <c r="E12" s="47" t="s">
+      <c r="E12" s="46" t="s">
         <v>262</v>
       </c>
       <c r="F12" s="27" t="s">
@@ -2682,10 +2679,10 @@
         <v>350</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C13" s="47"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="47"/>
+    <row r="13" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="46"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="46"/>
       <c r="F13" s="27" t="s">
         <v>259</v>
       </c>
@@ -2693,41 +2690,41 @@
         <v>340</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="24.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:7" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C14" s="40"/>
-      <c r="D14" s="51" t="s">
+      <c r="D14" s="48" t="s">
         <v>348</v>
       </c>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-    </row>
-    <row r="15" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+    </row>
+    <row r="15" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C15" s="40"/>
-      <c r="D15" s="51" t="s">
+      <c r="D15" s="48" t="s">
         <v>349</v>
       </c>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-    </row>
-    <row r="16" spans="2:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+    </row>
+    <row r="16" spans="2:7" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C16" s="41"/>
-      <c r="D16" s="48" t="s">
-        <v>435</v>
-      </c>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-    </row>
-    <row r="17" spans="3:7" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D16" s="49" t="s">
+        <v>433</v>
+      </c>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+    </row>
+    <row r="17" spans="3:7" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C17" s="41"/>
       <c r="D17" s="43"/>
       <c r="E17" s="42"/>
       <c r="F17" s="42"/>
       <c r="G17" s="42"/>
     </row>
-    <row r="18" spans="3:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C18" s="18"/>
       <c r="D18" s="18" t="s">
         <v>295</v>
@@ -2740,55 +2737,55 @@
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="3:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="47" t="s">
-        <v>389</v>
-      </c>
-      <c r="D19" s="46" t="s">
+    <row r="19" spans="3:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="46" t="s">
+        <v>387</v>
+      </c>
+      <c r="D19" s="47" t="s">
         <v>263</v>
       </c>
-      <c r="E19" s="47" t="s">
+      <c r="E19" s="46" t="s">
         <v>264</v>
       </c>
       <c r="F19" s="27" t="s">
         <v>258</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="20" spans="3:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="47"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="47"/>
+        <v>441</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="46"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="46"/>
       <c r="F20" s="27" t="s">
         <v>259</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="21" spans="3:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="47" t="s">
-        <v>390</v>
-      </c>
-      <c r="D21" s="46" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="46" t="s">
+        <v>388</v>
+      </c>
+      <c r="D21" s="47" t="s">
         <v>265</v>
       </c>
-      <c r="E21" s="47" t="s">
+      <c r="E21" s="46" t="s">
         <v>266</v>
       </c>
       <c r="F21" s="27" t="s">
         <v>258</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="22" spans="3:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C22" s="47"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="47"/>
+        <v>351</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="46"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="46"/>
       <c r="F22" s="27" t="s">
         <v>259</v>
       </c>
@@ -2796,55 +2793,55 @@
         <v>346</v>
       </c>
     </row>
-    <row r="23" spans="3:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C23" s="47" t="s">
-        <v>391</v>
-      </c>
-      <c r="D23" s="46" t="s">
+    <row r="23" spans="3:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="46" t="s">
+        <v>389</v>
+      </c>
+      <c r="D23" s="47" t="s">
         <v>267</v>
       </c>
-      <c r="E23" s="47" t="s">
+      <c r="E23" s="46" t="s">
         <v>268</v>
       </c>
       <c r="F23" s="27" t="s">
         <v>258</v>
       </c>
       <c r="G23" s="20" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="24" spans="3:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C24" s="47"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="47"/>
+        <v>352</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="46"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="46"/>
       <c r="F24" s="27" t="s">
         <v>259</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="25" spans="3:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C25" s="47" t="s">
-        <v>392</v>
-      </c>
-      <c r="D25" s="46" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="46" t="s">
+        <v>390</v>
+      </c>
+      <c r="D25" s="47" t="s">
         <v>269</v>
       </c>
-      <c r="E25" s="47" t="s">
+      <c r="E25" s="46" t="s">
         <v>269</v>
       </c>
       <c r="F25" s="27" t="s">
         <v>258</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="26" spans="3:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C26" s="47"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="47"/>
+        <v>354</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="46"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="46"/>
       <c r="F26" s="27" t="s">
         <v>259</v>
       </c>
@@ -2852,112 +2849,112 @@
         <v>344</v>
       </c>
     </row>
-    <row r="27" spans="3:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C27" s="47" t="s">
-        <v>393</v>
-      </c>
-      <c r="D27" s="46" t="s">
+    <row r="27" spans="3:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="46" t="s">
+        <v>391</v>
+      </c>
+      <c r="D27" s="47" t="s">
         <v>270</v>
       </c>
-      <c r="E27" s="47" t="s">
+      <c r="E27" s="46" t="s">
         <v>270</v>
       </c>
       <c r="F27" s="27" t="s">
         <v>258</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="28" spans="3:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C28" s="47"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="47"/>
+        <v>354</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="46"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="46"/>
       <c r="F28" s="27" t="s">
         <v>259</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="29" spans="3:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C29" s="47" t="s">
-        <v>394</v>
-      </c>
-      <c r="D29" s="46" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="46" t="s">
+        <v>392</v>
+      </c>
+      <c r="D29" s="47" t="s">
         <v>271</v>
       </c>
-      <c r="E29" s="47" t="s">
+      <c r="E29" s="46" t="s">
         <v>271</v>
       </c>
       <c r="F29" s="27" t="s">
         <v>258</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="30" spans="3:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C30" s="47"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="47"/>
+        <v>356</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="46"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="46"/>
       <c r="F30" s="27" t="s">
         <v>259</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="31" spans="3:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C31" s="47" t="s">
-        <v>395</v>
-      </c>
-      <c r="D31" s="46" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="46" t="s">
+        <v>393</v>
+      </c>
+      <c r="D31" s="47" t="s">
         <v>272</v>
       </c>
-      <c r="E31" s="47" t="s">
+      <c r="E31" s="46" t="s">
         <v>272</v>
       </c>
       <c r="F31" s="27" t="s">
         <v>258</v>
       </c>
       <c r="G31" s="20" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="32" spans="3:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C32" s="47"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="47"/>
+        <v>355</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="46"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="46"/>
       <c r="F32" s="27" t="s">
         <v>259</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="44"/>
-      <c r="C33" s="47" t="s">
-        <v>396</v>
-      </c>
-      <c r="D33" s="46" t="s">
-        <v>436</v>
-      </c>
-      <c r="E33" s="47" t="s">
+      <c r="C33" s="46" t="s">
+        <v>394</v>
+      </c>
+      <c r="D33" s="47" t="s">
+        <v>440</v>
+      </c>
+      <c r="E33" s="46" t="s">
         <v>306</v>
       </c>
       <c r="F33" s="27" t="s">
         <v>258</v>
       </c>
       <c r="G33" s="20" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C34" s="47"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="47"/>
+        <v>358</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="46"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="46"/>
       <c r="F34" s="27" t="s">
         <v>259</v>
       </c>
@@ -2965,16 +2962,16 @@
         <v>340</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="44"/>
-      <c r="C35" s="47" t="s">
-        <v>397</v>
-      </c>
-      <c r="D35" s="46" t="s">
-        <v>439</v>
-      </c>
-      <c r="E35" s="47" t="s">
-        <v>440</v>
+      <c r="C35" s="46" t="s">
+        <v>395</v>
+      </c>
+      <c r="D35" s="47" t="s">
+        <v>436</v>
+      </c>
+      <c r="E35" s="46" t="s">
+        <v>437</v>
       </c>
       <c r="F35" s="27" t="s">
         <v>258</v>
@@ -2983,26 +2980,26 @@
         <v>346</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C36" s="47"/>
-      <c r="D36" s="46"/>
-      <c r="E36" s="47"/>
+    <row r="36" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C36" s="46"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="46"/>
       <c r="F36" s="27" t="s">
         <v>259</v>
       </c>
       <c r="G36" s="20" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="44"/>
-      <c r="C37" s="47" t="s">
-        <v>398</v>
-      </c>
-      <c r="D37" s="46" t="s">
+      <c r="C37" s="46" t="s">
+        <v>396</v>
+      </c>
+      <c r="D37" s="47" t="s">
         <v>307</v>
       </c>
-      <c r="E37" s="47" t="s">
+      <c r="E37" s="46" t="s">
         <v>308</v>
       </c>
       <c r="F37" s="27" t="s">
@@ -3012,34 +3009,34 @@
         <v>346</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C38" s="47"/>
-      <c r="D38" s="46"/>
-      <c r="E38" s="47"/>
+    <row r="38" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C38" s="46"/>
+      <c r="D38" s="47"/>
+      <c r="E38" s="46"/>
       <c r="F38" s="27" t="s">
         <v>259</v>
       </c>
       <c r="G38" s="20" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="26.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="26.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C39" s="40"/>
-      <c r="D39" s="51" t="s">
+      <c r="D39" s="48" t="s">
         <v>314</v>
       </c>
-      <c r="E39" s="51"/>
-      <c r="F39" s="51"/>
-      <c r="G39" s="51"/>
-    </row>
-    <row r="40" spans="1:7" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E39" s="48"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="48"/>
+    </row>
+    <row r="40" spans="1:7" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C40" s="40"/>
       <c r="D40" s="25"/>
       <c r="E40" s="25"/>
       <c r="F40" s="25"/>
       <c r="G40" s="25"/>
     </row>
-    <row r="41" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C41" s="18"/>
       <c r="D41" s="18" t="s">
         <v>296</v>
@@ -3052,27 +3049,27 @@
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C42" s="47" t="s">
-        <v>399</v>
-      </c>
-      <c r="D42" s="46" t="s">
+    <row r="42" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C42" s="46" t="s">
+        <v>397</v>
+      </c>
+      <c r="D42" s="47" t="s">
         <v>273</v>
       </c>
-      <c r="E42" s="47" t="s">
+      <c r="E42" s="46" t="s">
         <v>273</v>
       </c>
       <c r="F42" s="27" t="s">
         <v>258</v>
       </c>
       <c r="G42" s="24" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C43" s="47"/>
-      <c r="D43" s="46"/>
-      <c r="E43" s="47"/>
+        <v>361</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C43" s="46"/>
+      <c r="D43" s="47"/>
+      <c r="E43" s="46"/>
       <c r="F43" s="27" t="s">
         <v>259</v>
       </c>
@@ -3080,27 +3077,27 @@
         <v>344</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C44" s="47" t="s">
-        <v>400</v>
-      </c>
-      <c r="D44" s="46" t="s">
+    <row r="44" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C44" s="46" t="s">
+        <v>398</v>
+      </c>
+      <c r="D44" s="47" t="s">
         <v>304</v>
       </c>
-      <c r="E44" s="47" t="s">
+      <c r="E44" s="46" t="s">
         <v>274</v>
       </c>
       <c r="F44" s="27" t="s">
         <v>258</v>
       </c>
       <c r="G44" s="24" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C45" s="47"/>
-      <c r="D45" s="46"/>
-      <c r="E45" s="47"/>
+        <v>355</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C45" s="46"/>
+      <c r="D45" s="47"/>
+      <c r="E45" s="46"/>
       <c r="F45" s="27" t="s">
         <v>259</v>
       </c>
@@ -3108,27 +3105,27 @@
         <v>344</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C46" s="47" t="s">
-        <v>401</v>
-      </c>
-      <c r="D46" s="46" t="s">
+    <row r="46" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C46" s="46" t="s">
+        <v>399</v>
+      </c>
+      <c r="D46" s="47" t="s">
         <v>275</v>
       </c>
-      <c r="E46" s="47" t="s">
+      <c r="E46" s="46" t="s">
         <v>275</v>
       </c>
       <c r="F46" s="27" t="s">
         <v>258</v>
       </c>
       <c r="G46" s="24" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C47" s="47"/>
-      <c r="D47" s="46"/>
-      <c r="E47" s="47"/>
+        <v>351</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C47" s="46"/>
+      <c r="D47" s="47"/>
+      <c r="E47" s="46"/>
       <c r="F47" s="27" t="s">
         <v>259</v>
       </c>
@@ -3136,27 +3133,27 @@
         <v>344</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C48" s="47" t="s">
-        <v>402</v>
-      </c>
-      <c r="D48" s="46" t="s">
+    <row r="48" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C48" s="46" t="s">
+        <v>400</v>
+      </c>
+      <c r="D48" s="47" t="s">
         <v>276</v>
       </c>
-      <c r="E48" s="47" t="s">
+      <c r="E48" s="46" t="s">
         <v>276</v>
       </c>
       <c r="F48" s="27" t="s">
         <v>258</v>
       </c>
       <c r="G48" s="24" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C49" s="47"/>
-      <c r="D49" s="46"/>
-      <c r="E49" s="47"/>
+        <v>362</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C49" s="46"/>
+      <c r="D49" s="47"/>
+      <c r="E49" s="46"/>
       <c r="F49" s="27" t="s">
         <v>259</v>
       </c>
@@ -3164,27 +3161,27 @@
         <v>344</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C50" s="47" t="s">
-        <v>403</v>
-      </c>
-      <c r="D50" s="46" t="s">
+    <row r="50" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C50" s="46" t="s">
+        <v>401</v>
+      </c>
+      <c r="D50" s="47" t="s">
         <v>277</v>
       </c>
-      <c r="E50" s="47" t="s">
+      <c r="E50" s="46" t="s">
         <v>277</v>
       </c>
       <c r="F50" s="27" t="s">
         <v>258</v>
       </c>
       <c r="G50" s="24" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C51" s="47"/>
-      <c r="D51" s="46"/>
-      <c r="E51" s="47"/>
+        <v>353</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C51" s="46"/>
+      <c r="D51" s="47"/>
+      <c r="E51" s="46"/>
       <c r="F51" s="27" t="s">
         <v>259</v>
       </c>
@@ -3192,27 +3189,27 @@
         <v>344</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C52" s="47" t="s">
-        <v>404</v>
-      </c>
-      <c r="D52" s="46" t="s">
+    <row r="52" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C52" s="46" t="s">
+        <v>402</v>
+      </c>
+      <c r="D52" s="47" t="s">
         <v>278</v>
       </c>
-      <c r="E52" s="47" t="s">
+      <c r="E52" s="46" t="s">
         <v>278</v>
       </c>
       <c r="F52" s="27" t="s">
         <v>258</v>
       </c>
       <c r="G52" s="24" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C53" s="47"/>
-      <c r="D53" s="46"/>
-      <c r="E53" s="47"/>
+        <v>352</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C53" s="46"/>
+      <c r="D53" s="47"/>
+      <c r="E53" s="46"/>
       <c r="F53" s="27" t="s">
         <v>259</v>
       </c>
@@ -3220,27 +3217,27 @@
         <v>344</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C54" s="47" t="s">
-        <v>405</v>
-      </c>
-      <c r="D54" s="46" t="s">
+    <row r="54" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C54" s="46" t="s">
+        <v>403</v>
+      </c>
+      <c r="D54" s="47" t="s">
         <v>279</v>
       </c>
-      <c r="E54" s="47" t="s">
+      <c r="E54" s="46" t="s">
         <v>279</v>
       </c>
       <c r="F54" s="27" t="s">
         <v>258</v>
       </c>
       <c r="G54" s="24" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C55" s="47"/>
-      <c r="D55" s="46"/>
-      <c r="E55" s="47"/>
+        <v>356</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C55" s="46"/>
+      <c r="D55" s="47"/>
+      <c r="E55" s="46"/>
       <c r="F55" s="27" t="s">
         <v>259</v>
       </c>
@@ -3248,14 +3245,14 @@
         <v>344</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C56" s="47" t="s">
-        <v>406</v>
-      </c>
-      <c r="D56" s="46" t="s">
+    <row r="56" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C56" s="46" t="s">
+        <v>404</v>
+      </c>
+      <c r="D56" s="47" t="s">
         <v>280</v>
       </c>
-      <c r="E56" s="47" t="s">
+      <c r="E56" s="46" t="s">
         <v>281</v>
       </c>
       <c r="F56" s="27" t="s">
@@ -3265,10 +3262,10 @@
         <v>347</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C57" s="47"/>
-      <c r="D57" s="46"/>
-      <c r="E57" s="47"/>
+    <row r="57" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C57" s="46"/>
+      <c r="D57" s="47"/>
+      <c r="E57" s="46"/>
       <c r="F57" s="27" t="s">
         <v>259</v>
       </c>
@@ -3276,27 +3273,27 @@
         <v>341</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C58" s="47" t="s">
-        <v>407</v>
-      </c>
-      <c r="D58" s="46" t="s">
+    <row r="58" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C58" s="46" t="s">
+        <v>405</v>
+      </c>
+      <c r="D58" s="47" t="s">
         <v>282</v>
       </c>
-      <c r="E58" s="47" t="s">
+      <c r="E58" s="46" t="s">
         <v>283</v>
       </c>
       <c r="F58" s="27" t="s">
         <v>258</v>
       </c>
       <c r="G58" s="24" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C59" s="47"/>
-      <c r="D59" s="46"/>
-      <c r="E59" s="47"/>
+        <v>362</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C59" s="46"/>
+      <c r="D59" s="47"/>
+      <c r="E59" s="46"/>
       <c r="F59" s="27" t="s">
         <v>259</v>
       </c>
@@ -3304,27 +3301,27 @@
         <v>340</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C60" s="47" t="s">
-        <v>408</v>
-      </c>
-      <c r="D60" s="46" t="s">
+    <row r="60" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C60" s="46" t="s">
+        <v>406</v>
+      </c>
+      <c r="D60" s="47" t="s">
         <v>284</v>
       </c>
-      <c r="E60" s="47" t="s">
+      <c r="E60" s="46" t="s">
         <v>285</v>
       </c>
       <c r="F60" s="27" t="s">
         <v>258</v>
       </c>
       <c r="G60" s="24" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C61" s="47"/>
-      <c r="D61" s="46"/>
-      <c r="E61" s="47"/>
+        <v>363</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C61" s="46"/>
+      <c r="D61" s="47"/>
+      <c r="E61" s="46"/>
       <c r="F61" s="27" t="s">
         <v>259</v>
       </c>
@@ -3332,28 +3329,28 @@
         <v>341</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="44"/>
-      <c r="C62" s="47" t="s">
-        <v>409</v>
-      </c>
-      <c r="D62" s="46" t="s">
+      <c r="C62" s="46" t="s">
+        <v>407</v>
+      </c>
+      <c r="D62" s="47" t="s">
         <v>309</v>
       </c>
-      <c r="E62" s="47" t="s">
+      <c r="E62" s="46" t="s">
         <v>310</v>
       </c>
       <c r="F62" s="27" t="s">
         <v>258</v>
       </c>
       <c r="G62" s="24" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C63" s="47"/>
-      <c r="D63" s="46"/>
-      <c r="E63" s="47"/>
+        <v>442</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C63" s="46"/>
+      <c r="D63" s="47"/>
+      <c r="E63" s="46"/>
       <c r="F63" s="27" t="s">
         <v>259</v>
       </c>
@@ -3361,28 +3358,28 @@
         <v>340</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="44"/>
-      <c r="C64" s="47" t="s">
-        <v>410</v>
-      </c>
-      <c r="D64" s="46" t="s">
+      <c r="C64" s="46" t="s">
+        <v>408</v>
+      </c>
+      <c r="D64" s="47" t="s">
         <v>311</v>
       </c>
-      <c r="E64" s="47" t="s">
+      <c r="E64" s="46" t="s">
         <v>312</v>
       </c>
       <c r="F64" s="27" t="s">
         <v>258</v>
       </c>
       <c r="G64" s="24" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="65" spans="3:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C65" s="47"/>
-      <c r="D65" s="46"/>
-      <c r="E65" s="47"/>
+        <v>363</v>
+      </c>
+    </row>
+    <row r="65" spans="3:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C65" s="46"/>
+      <c r="D65" s="47"/>
+      <c r="E65" s="46"/>
       <c r="F65" s="27" t="s">
         <v>259</v>
       </c>
@@ -3390,14 +3387,14 @@
         <v>344</v>
       </c>
     </row>
-    <row r="66" spans="3:7" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="3:7" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C66" s="40"/>
       <c r="D66" s="25"/>
       <c r="E66" s="25"/>
       <c r="F66" s="25"/>
       <c r="G66" s="25"/>
     </row>
-    <row r="67" spans="3:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="3:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C67" s="18"/>
       <c r="D67" s="18" t="s">
         <v>297</v>
@@ -3410,14 +3407,14 @@
         <v>300</v>
       </c>
     </row>
-    <row r="68" spans="3:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C68" s="47" t="s">
-        <v>411</v>
-      </c>
-      <c r="D68" s="46" t="s">
+    <row r="68" spans="3:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C68" s="46" t="s">
+        <v>409</v>
+      </c>
+      <c r="D68" s="47" t="s">
         <v>286</v>
       </c>
-      <c r="E68" s="47" t="s">
+      <c r="E68" s="46" t="s">
         <v>287</v>
       </c>
       <c r="F68" s="27" t="s">
@@ -3427,10 +3424,10 @@
         <v>344</v>
       </c>
     </row>
-    <row r="69" spans="3:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C69" s="47"/>
-      <c r="D69" s="46"/>
-      <c r="E69" s="47"/>
+    <row r="69" spans="3:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C69" s="46"/>
+      <c r="D69" s="47"/>
+      <c r="E69" s="46"/>
       <c r="F69" s="27" t="s">
         <v>259</v>
       </c>
@@ -3438,14 +3435,14 @@
         <v>340</v>
       </c>
     </row>
-    <row r="70" spans="3:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C70" s="47" t="s">
-        <v>412</v>
-      </c>
-      <c r="D70" s="46" t="s">
+    <row r="70" spans="3:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C70" s="46" t="s">
+        <v>410</v>
+      </c>
+      <c r="D70" s="47" t="s">
         <v>288</v>
       </c>
-      <c r="E70" s="47" t="s">
+      <c r="E70" s="46" t="s">
         <v>289</v>
       </c>
       <c r="F70" s="27" t="s">
@@ -3455,25 +3452,25 @@
         <v>345</v>
       </c>
     </row>
-    <row r="71" spans="3:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C71" s="47"/>
-      <c r="D71" s="46"/>
-      <c r="E71" s="47"/>
+    <row r="71" spans="3:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C71" s="46"/>
+      <c r="D71" s="47"/>
+      <c r="E71" s="46"/>
       <c r="F71" s="27" t="s">
         <v>259</v>
       </c>
       <c r="G71" s="20" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="72" spans="3:7" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="72" spans="3:7" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C72" s="40"/>
       <c r="D72" s="25"/>
       <c r="E72" s="25"/>
       <c r="F72" s="25"/>
       <c r="G72" s="25"/>
     </row>
-    <row r="73" spans="3:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="3:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C73" s="18"/>
       <c r="D73" s="18" t="s">
         <v>298</v>
@@ -3486,14 +3483,14 @@
         <v>300</v>
       </c>
     </row>
-    <row r="74" spans="3:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C74" s="47" t="s">
-        <v>413</v>
-      </c>
-      <c r="D74" s="46" t="s">
+    <row r="74" spans="3:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C74" s="46" t="s">
+        <v>411</v>
+      </c>
+      <c r="D74" s="47" t="s">
         <v>290</v>
       </c>
-      <c r="E74" s="47" t="s">
+      <c r="E74" s="46" t="s">
         <v>290</v>
       </c>
       <c r="F74" s="27" t="s">
@@ -3503,10 +3500,10 @@
         <v>338</v>
       </c>
     </row>
-    <row r="75" spans="3:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C75" s="47"/>
-      <c r="D75" s="46"/>
-      <c r="E75" s="47"/>
+    <row r="75" spans="3:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C75" s="46"/>
+      <c r="D75" s="47"/>
+      <c r="E75" s="46"/>
       <c r="F75" s="27" t="s">
         <v>259</v>
       </c>
@@ -3514,14 +3511,14 @@
         <v>344</v>
       </c>
     </row>
-    <row r="76" spans="3:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C76" s="47" t="s">
-        <v>414</v>
-      </c>
-      <c r="D76" s="46" t="s">
+    <row r="76" spans="3:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C76" s="46" t="s">
+        <v>412</v>
+      </c>
+      <c r="D76" s="47" t="s">
         <v>291</v>
       </c>
-      <c r="E76" s="47" t="s">
+      <c r="E76" s="46" t="s">
         <v>291</v>
       </c>
       <c r="F76" s="27" t="s">
@@ -3531,10 +3528,10 @@
         <v>339</v>
       </c>
     </row>
-    <row r="77" spans="3:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C77" s="47"/>
-      <c r="D77" s="46"/>
-      <c r="E77" s="47"/>
+    <row r="77" spans="3:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C77" s="46"/>
+      <c r="D77" s="47"/>
+      <c r="E77" s="46"/>
       <c r="F77" s="27" t="s">
         <v>259</v>
       </c>
@@ -3542,14 +3539,14 @@
         <v>344</v>
       </c>
     </row>
-    <row r="78" spans="3:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C78" s="47" t="s">
-        <v>415</v>
-      </c>
-      <c r="D78" s="46" t="s">
+    <row r="78" spans="3:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C78" s="46" t="s">
+        <v>413</v>
+      </c>
+      <c r="D78" s="47" t="s">
         <v>292</v>
       </c>
-      <c r="E78" s="47" t="s">
+      <c r="E78" s="46" t="s">
         <v>292</v>
       </c>
       <c r="F78" s="27" t="s">
@@ -3559,10 +3556,10 @@
         <v>342</v>
       </c>
     </row>
-    <row r="79" spans="3:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C79" s="47"/>
-      <c r="D79" s="46"/>
-      <c r="E79" s="47"/>
+    <row r="79" spans="3:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C79" s="46"/>
+      <c r="D79" s="47"/>
+      <c r="E79" s="46"/>
       <c r="F79" s="27" t="s">
         <v>259</v>
       </c>
@@ -3570,27 +3567,27 @@
         <v>344</v>
       </c>
     </row>
-    <row r="80" spans="3:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C80" s="47" t="s">
-        <v>416</v>
-      </c>
-      <c r="D80" s="46" t="s">
-        <v>437</v>
-      </c>
-      <c r="E80" s="47" t="s">
+    <row r="80" spans="3:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C80" s="46" t="s">
+        <v>414</v>
+      </c>
+      <c r="D80" s="47" t="s">
+        <v>434</v>
+      </c>
+      <c r="E80" s="46" t="s">
         <v>293</v>
       </c>
       <c r="F80" s="27" t="s">
         <v>258</v>
       </c>
       <c r="G80" s="24" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C81" s="47"/>
-      <c r="D81" s="46"/>
-      <c r="E81" s="47"/>
+        <v>364</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C81" s="46"/>
+      <c r="D81" s="47"/>
+      <c r="E81" s="46"/>
       <c r="F81" s="27" t="s">
         <v>259</v>
       </c>
@@ -3598,26 +3595,26 @@
         <v>344</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="44"/>
-      <c r="C82" s="47" t="s">
-        <v>417</v>
-      </c>
-      <c r="D82" s="46" t="s">
-        <v>438</v>
-      </c>
-      <c r="E82" s="47"/>
+      <c r="C82" s="46" t="s">
+        <v>415</v>
+      </c>
+      <c r="D82" s="47" t="s">
+        <v>435</v>
+      </c>
+      <c r="E82" s="46"/>
       <c r="F82" s="27" t="s">
         <v>258</v>
       </c>
       <c r="G82" s="24" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C83" s="47"/>
-      <c r="D83" s="46"/>
-      <c r="E83" s="47"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C83" s="46"/>
+      <c r="D83" s="47"/>
+      <c r="E83" s="46"/>
       <c r="F83" s="27" t="s">
         <v>259</v>
       </c>
@@ -3625,123 +3622,85 @@
         <v>344</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="44"/>
-      <c r="C84" s="47" t="s">
-        <v>418</v>
-      </c>
-      <c r="D84" s="46" t="s">
+      <c r="C84" s="46" t="s">
+        <v>416</v>
+      </c>
+      <c r="D84" s="47" t="s">
         <v>313</v>
       </c>
-      <c r="E84" s="47"/>
+      <c r="E84" s="46"/>
       <c r="F84" s="27" t="s">
         <v>258</v>
       </c>
       <c r="G84" s="24" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C85" s="47"/>
-      <c r="D85" s="46"/>
-      <c r="E85" s="47"/>
+        <v>366</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C85" s="46"/>
+      <c r="D85" s="47"/>
+      <c r="E85" s="46"/>
       <c r="F85" s="27" t="s">
         <v>259</v>
       </c>
       <c r="G85" s="20" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C86" s="37"/>
       <c r="D86" s="26" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="88" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E88" s="22"/>
       <c r="F88" s="22"/>
       <c r="G88" s="22"/>
     </row>
-    <row r="89" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="90" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="91" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="92" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="93" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="94" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="95" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="96" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="97" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="98" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="99" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="100" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="101" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="102" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="103" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="104" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="105">
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="C2:G4"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="C6:G6"/>
     <mergeCell ref="D35:D36"/>
     <mergeCell ref="E35:E36"/>
     <mergeCell ref="D31:D32"/>
@@ -3765,28 +3724,66 @@
     <mergeCell ref="D50:D51"/>
     <mergeCell ref="E50:E51"/>
     <mergeCell ref="D52:D53"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="C2:G4"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C50:C51"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="58" orientation="portrait" r:id="rId1"/>
@@ -3802,44 +3799,44 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.453125" style="13" customWidth="1"/>
+    <col min="1" max="1" width="2.42578125" style="13" customWidth="1"/>
     <col min="2" max="2" width="8" style="13" customWidth="1"/>
-    <col min="3" max="3" width="47.54296875" style="13" customWidth="1"/>
-    <col min="4" max="4" width="83.7265625" style="13" customWidth="1"/>
-    <col min="5" max="16384" width="9.26953125" style="13"/>
+    <col min="3" max="3" width="47.5703125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="83.7109375" style="13" customWidth="1"/>
+    <col min="5" max="16384" width="9.28515625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="7.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:4" ht="7.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="36"/>
       <c r="C2" s="53" t="s">
         <v>334</v>
       </c>
       <c r="D2" s="53"/>
     </row>
-    <row r="3" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="36"/>
       <c r="C3" s="53"/>
       <c r="D3" s="53"/>
     </row>
-    <row r="4" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="36"/>
       <c r="C4" s="53"/>
       <c r="D4" s="53"/>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D5" s="14" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="55"/>
       <c r="C6" s="55"/>
       <c r="D6" s="55"/>
     </row>
-    <row r="7" spans="2:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="39"/>
       <c r="C7" s="39" t="s">
         <v>302</v>
@@ -3848,111 +3845,111 @@
         <v>299</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="31" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C8" s="30" t="s">
         <v>316</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="31" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C9" s="32" t="s">
         <v>317</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="31" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C10" s="32" t="s">
         <v>318</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="31" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C11" s="32" t="s">
         <v>319</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="31" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C12" s="32" t="s">
         <v>320</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="31" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C13" s="32" t="s">
         <v>336</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="31" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C14" s="32" t="s">
         <v>321</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="31" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C15" s="32" t="s">
         <v>322</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="31" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C16" s="32" t="s">
         <v>323</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="2:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="35"/>
       <c r="C18" s="35" t="s">
         <v>324</v>
@@ -3961,107 +3958,107 @@
         <v>299</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="33" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C19" s="32" t="s">
         <v>325</v>
       </c>
       <c r="D19" s="34" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="33" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C20" s="32" t="s">
         <v>326</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="33" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C21" s="32" t="s">
         <v>327</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="33" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C22" s="32" t="s">
         <v>328</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="33" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C23" s="32" t="s">
         <v>329</v>
       </c>
       <c r="D23" s="34" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="33" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C24" s="32" t="s">
         <v>330</v>
       </c>
       <c r="D24" s="34" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="33" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C25" s="32" t="s">
         <v>331</v>
       </c>
       <c r="D25" s="34" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="37"/>
       <c r="C26" s="26" t="s">
         <v>332</v>
       </c>
       <c r="D26" s="26"/>
     </row>
-    <row r="27" spans="2:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="37"/>
       <c r="C27" s="26" t="s">
         <v>333</v>
       </c>
       <c r="D27" s="26"/>
     </row>
-    <row r="28" spans="2:4" ht="27.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:4" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="38"/>
       <c r="C28" s="54" t="s">
         <v>335</v>
       </c>
       <c r="D28" s="54"/>
     </row>
-    <row r="29" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="C2:D4"/>
@@ -4079,18 +4076,18 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.453125" style="2" customWidth="1"/>
-    <col min="2" max="4" width="9.26953125" style="3"/>
-    <col min="5" max="5" width="17.7265625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" style="2" customWidth="1"/>
+    <col min="2" max="4" width="9.28515625" style="3"/>
+    <col min="5" max="5" width="17.7109375" style="2" customWidth="1"/>
     <col min="6" max="6" width="46" style="2" customWidth="1"/>
-    <col min="7" max="7" width="19.54296875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="16.54296875" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9.26953125" style="2"/>
+    <col min="7" max="7" width="19.5703125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9.28515625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
         <v>21</v>
       </c>
@@ -4098,7 +4095,7 @@
       <c r="D2" s="6"/>
       <c r="E2" s="9"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
         <v>22</v>
       </c>
@@ -4106,7 +4103,7 @@
       <c r="D3" s="6"/>
       <c r="E3" s="9"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
         <v>23</v>
       </c>
@@ -4129,7 +4126,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
@@ -4153,7 +4150,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>0</v>
       </c>
@@ -4174,7 +4171,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
@@ -4198,7 +4195,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
@@ -4219,7 +4216,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>1</v>
       </c>
@@ -4240,7 +4237,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
         <v>1</v>
       </c>
@@ -4264,7 +4261,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
         <v>1</v>
       </c>
@@ -4285,7 +4282,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
         <v>1</v>
       </c>
@@ -4303,7 +4300,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
         <v>2</v>
       </c>
@@ -4324,7 +4321,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
         <v>2</v>
       </c>
@@ -4345,7 +4342,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
         <v>2</v>
       </c>
@@ -4363,7 +4360,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
         <v>2</v>
       </c>
@@ -4381,7 +4378,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
         <v>2</v>
       </c>
@@ -4402,7 +4399,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
         <v>2</v>
       </c>
@@ -4423,7 +4420,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
         <v>2</v>
       </c>
@@ -4444,7 +4441,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
         <v>2</v>
       </c>
@@ -4462,7 +4459,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
         <v>2</v>
       </c>
@@ -4486,7 +4483,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
         <v>2</v>
       </c>
@@ -4510,7 +4507,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="s">
         <v>2</v>
       </c>
@@ -4528,7 +4525,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B25" s="3" t="s">
         <v>2</v>
       </c>
@@ -4549,7 +4546,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B26" s="3" t="s">
         <v>2</v>
       </c>
@@ -4567,7 +4564,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B27" s="3" t="s">
         <v>2</v>
       </c>
@@ -4588,7 +4585,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B28" s="3" t="s">
         <v>2</v>
       </c>
@@ -4609,7 +4606,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B29" s="3" t="s">
         <v>2</v>
       </c>
@@ -4633,7 +4630,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B30" s="3" t="s">
         <v>2</v>
       </c>
@@ -4654,7 +4651,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B31" s="3" t="s">
         <v>2</v>
       </c>
@@ -4678,7 +4675,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B32" s="3" t="s">
         <v>2</v>
       </c>
@@ -4702,7 +4699,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B33" s="3" t="s">
         <v>2</v>
       </c>
@@ -4720,7 +4717,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B34" s="3" t="s">
         <v>2</v>
       </c>
@@ -4738,7 +4735,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B35" s="3" t="s">
         <v>2</v>
       </c>
@@ -4756,7 +4753,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B36" s="3" t="s">
         <v>2</v>
       </c>
@@ -4774,7 +4771,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B37" s="3" t="s">
         <v>2</v>
       </c>
@@ -4798,7 +4795,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B38" s="3" t="s">
         <v>3</v>
       </c>
@@ -4813,7 +4810,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B39" s="3" t="s">
         <v>4</v>
       </c>
@@ -4831,7 +4828,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B40" s="3" t="s">
         <v>4</v>
       </c>
@@ -4849,7 +4846,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B41" s="3" t="s">
         <v>4</v>
       </c>
@@ -4870,7 +4867,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B42" s="3" t="s">
         <v>4</v>
       </c>
@@ -4888,7 +4885,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="43" spans="2:8" ht="117" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:8" ht="114.75" x14ac:dyDescent="0.2">
       <c r="B43" s="3" t="s">
         <v>5</v>
       </c>
@@ -4906,7 +4903,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B44" s="3" t="s">
         <v>5</v>
       </c>
@@ -4924,7 +4921,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B45" s="3" t="s">
         <v>5</v>
       </c>
@@ -4942,7 +4939,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B46" s="3" t="s">
         <v>6</v>
       </c>
@@ -4966,7 +4963,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B47" s="3" t="s">
         <v>6</v>
       </c>
@@ -4987,7 +4984,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B48" s="3" t="s">
         <v>6</v>
       </c>
@@ -5011,7 +5008,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B49" s="3" t="s">
         <v>7</v>
       </c>
@@ -5029,7 +5026,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B50" s="3" t="s">
         <v>7</v>
       </c>
@@ -5050,7 +5047,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B51" s="3" t="s">
         <v>7</v>
       </c>
@@ -5071,7 +5068,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B52" s="3" t="s">
         <v>7</v>
       </c>
@@ -5089,7 +5086,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B53" s="3" t="s">
         <v>7</v>
       </c>
@@ -5110,7 +5107,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B54" s="3" t="s">
         <v>8</v>
       </c>
@@ -5134,7 +5131,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B55" s="3" t="s">
         <v>8</v>
       </c>
@@ -5155,7 +5152,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B56" s="3" t="s">
         <v>9</v>
       </c>
@@ -5176,7 +5173,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B57" s="3" t="s">
         <v>9</v>
       </c>
@@ -5197,7 +5194,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B58" s="3" t="s">
         <v>9</v>
       </c>
@@ -5221,7 +5218,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B59" s="3" t="s">
         <v>9</v>
       </c>
@@ -5239,7 +5236,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B60" s="3" t="s">
         <v>9</v>
       </c>
@@ -5257,7 +5254,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B61" s="3" t="s">
         <v>9</v>
       </c>
@@ -5275,7 +5272,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B62" s="3" t="s">
         <v>10</v>
       </c>
@@ -5293,7 +5290,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B63" s="3" t="s">
         <v>10</v>
       </c>
@@ -5311,7 +5308,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B64" s="3" t="s">
         <v>10</v>
       </c>
@@ -5329,7 +5326,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B65" s="3" t="s">
         <v>11</v>
       </c>
@@ -5344,7 +5341,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B66" s="3" t="s">
         <v>12</v>
       </c>
@@ -5365,7 +5362,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B67" s="3" t="s">
         <v>12</v>
       </c>
@@ -5386,7 +5383,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B68" s="3" t="s">
         <v>12</v>
       </c>
@@ -5407,7 +5404,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B69" s="3" t="s">
         <v>12</v>
       </c>
@@ -5428,7 +5425,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B70" s="3" t="s">
         <v>12</v>
       </c>
@@ -5446,7 +5443,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B71" s="3" t="s">
         <v>12</v>
       </c>
@@ -5464,7 +5461,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B72" s="3" t="s">
         <v>12</v>
       </c>
@@ -5485,7 +5482,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B73" s="3" t="s">
         <v>13</v>
       </c>
@@ -5506,7 +5503,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B74" s="3" t="s">
         <v>13</v>
       </c>
@@ -5527,7 +5524,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B75" s="3" t="s">
         <v>13</v>
       </c>
@@ -5548,7 +5545,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B76" s="3" t="s">
         <v>13</v>
       </c>
@@ -5566,7 +5563,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B77" s="3" t="s">
         <v>13</v>
       </c>
@@ -5584,7 +5581,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B78" s="3" t="s">
         <v>13</v>
       </c>
@@ -5608,7 +5605,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B79" s="3" t="s">
         <v>14</v>
       </c>
@@ -5623,7 +5620,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B80" s="3" t="s">
         <v>15</v>
       </c>
@@ -5644,7 +5641,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B81" s="3" t="s">
         <v>15</v>
       </c>
@@ -5662,7 +5659,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B82" s="3" t="s">
         <v>15</v>
       </c>
@@ -5680,7 +5677,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B83" s="3" t="s">
         <v>16</v>
       </c>
@@ -5701,7 +5698,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B84" s="3" t="s">
         <v>16</v>
       </c>
@@ -5725,7 +5722,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B85" s="3" t="s">
         <v>16</v>
       </c>
@@ -5743,7 +5740,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B86" s="3" t="s">
         <v>16</v>
       </c>
@@ -5764,7 +5761,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B87" s="3" t="s">
         <v>17</v>
       </c>
@@ -5782,7 +5779,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B88" s="3" t="s">
         <v>17</v>
       </c>
@@ -5806,7 +5803,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B89" s="3" t="s">
         <v>17</v>
       </c>
@@ -5824,82 +5821,82 @@
         <v>254</v>
       </c>
     </row>
-    <row r="91" spans="2:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
     </row>
-    <row r="92" spans="2:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
     </row>
-    <row r="93" spans="2:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
     </row>
-    <row r="94" spans="2:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
     </row>
-    <row r="95" spans="2:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
     </row>
-    <row r="96" spans="2:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
     </row>
-    <row r="97" spans="5:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="97" spans="5:7" ht="15" x14ac:dyDescent="0.25">
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
     </row>
-    <row r="98" spans="5:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="98" spans="5:7" ht="15" x14ac:dyDescent="0.25">
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
     </row>
-    <row r="99" spans="5:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="99" spans="5:7" ht="15" x14ac:dyDescent="0.25">
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
     </row>
-    <row r="100" spans="5:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="100" spans="5:7" ht="15" x14ac:dyDescent="0.25">
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
     </row>
-    <row r="101" spans="5:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="101" spans="5:7" ht="15" x14ac:dyDescent="0.25">
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
     </row>
-    <row r="102" spans="5:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="102" spans="5:7" ht="15" x14ac:dyDescent="0.25">
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
     </row>
-    <row r="103" spans="5:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="103" spans="5:7" ht="15" x14ac:dyDescent="0.25">
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
     </row>
-    <row r="104" spans="5:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="104" spans="5:7" ht="15" x14ac:dyDescent="0.25">
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
     </row>
-    <row r="105" spans="5:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="105" spans="5:7" ht="15" x14ac:dyDescent="0.25">
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
     </row>
-    <row r="106" spans="5:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="106" spans="5:7" ht="15" x14ac:dyDescent="0.25">
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
@@ -5911,11 +5908,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<XMLData TextToDisplay="%CLASSIFICATIONDATETIME%">10:34 29/01/2020</XMLData>
+<XMLData TextToDisplay="RightsWATCHMark">12|BDP-Externo-Público|{00000000-0000-0000-0000-000000000000}</XMLData>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<XMLData TextToDisplay="RightsWATCHMark">12|BDP-Externo-Público|{00000000-0000-0000-0000-000000000000}</XMLData>
+<XMLData TextToDisplay="%CLASSIFICATIONDATETIME%">10:34 29/01/2020</XMLData>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5923,13 +5920,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F70D093A-AF4E-4186-9653-DD0BC848BE9E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C45CD51E-1EDF-4D77-A14C-B4DC901E13C6}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C45CD51E-1EDF-4D77-A14C-B4DC901E13C6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F70D093A-AF4E-4186-9653-DD0BC848BE9E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
